--- a/benefit.xlsx
+++ b/benefit.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\te\arduino\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ABE2273-1594-457A-BC0F-A59D883B929E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC8974FB-4301-476D-9E3D-992053F43617}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{562C186B-7536-4815-983F-BCFB6FE581BA}"/>
   </bookViews>
@@ -24,40 +24,6 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>DELL</author>
-  </authors>
-  <commentList>
-    <comment ref="G29" authorId="0" shapeId="0" xr:uid="{895E58DF-6936-4D25-BB93-A97AB6289A9B}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>DELL:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-bonus: 1k</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
@@ -98,26 +64,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -455,11 +408,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42D720BC-90CD-453C-B61F-4B80DD7C9570}">
-  <dimension ref="F2:N73"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42D720BC-90CD-453C-B61F-4B80DD7C9570}">
+  <dimension ref="F2:N65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4:G74"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G39" sqref="G39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -475,7 +428,7 @@
         <v>2</v>
       </c>
       <c r="K2">
-        <v>810</v>
+        <v>831</v>
       </c>
     </row>
     <row r="3" spans="6:12" x14ac:dyDescent="0.35">
@@ -487,18 +440,18 @@
       </c>
     </row>
     <row r="4" spans="6:12" x14ac:dyDescent="0.35">
-      <c r="F4">
-        <v>215</v>
+      <c r="G4">
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="6:12" x14ac:dyDescent="0.35">
       <c r="G5">
-        <v>70</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="6:12" x14ac:dyDescent="0.35">
       <c r="G6">
-        <v>44</v>
+        <v>4</v>
       </c>
       <c r="K6" t="s">
         <v>3</v>
@@ -506,135 +459,159 @@
     </row>
     <row r="7" spans="6:12" x14ac:dyDescent="0.35">
       <c r="G7">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="J7">
         <v>500</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <f>K7*J7</f>
-        <v>500</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="8" spans="6:12" x14ac:dyDescent="0.35">
       <c r="G8">
-        <v>10</v>
+        <v>120</v>
       </c>
       <c r="J8">
         <v>200</v>
       </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
       <c r="L8">
         <f t="shared" ref="L8:L15" si="0">K8*J8</f>
-        <v>0</v>
+        <v>600</v>
       </c>
     </row>
     <row r="9" spans="6:12" x14ac:dyDescent="0.35">
       <c r="G9">
-        <v>36</v>
+        <v>5</v>
       </c>
       <c r="J9">
         <v>100</v>
       </c>
+      <c r="K9">
+        <v>15</v>
+      </c>
       <c r="L9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="10" spans="6:12" x14ac:dyDescent="0.35">
       <c r="G10">
-        <v>33</v>
+        <v>105</v>
       </c>
       <c r="J10">
         <v>50</v>
       </c>
+      <c r="K10">
+        <v>5</v>
+      </c>
       <c r="L10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>250</v>
       </c>
     </row>
     <row r="11" spans="6:12" x14ac:dyDescent="0.35">
       <c r="G11">
-        <v>74</v>
+        <v>13</v>
       </c>
       <c r="J11">
         <v>20</v>
       </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
       <c r="L11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="6:12" x14ac:dyDescent="0.35">
-      <c r="G12">
-        <v>70</v>
+      <c r="F12">
+        <v>22</v>
       </c>
       <c r="J12">
         <v>10</v>
       </c>
+      <c r="K12">
+        <v>5</v>
+      </c>
       <c r="L12">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="6:12" x14ac:dyDescent="0.35">
       <c r="G13">
-        <v>30</v>
+        <v>274</v>
       </c>
       <c r="J13">
         <v>5</v>
       </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
       <c r="L13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="6:12" x14ac:dyDescent="0.35">
       <c r="G14">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="J14">
         <v>2</v>
       </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
       <c r="L14">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="6:12" x14ac:dyDescent="0.35">
       <c r="G15">
-        <v>103</v>
+        <v>155</v>
       </c>
       <c r="J15">
         <v>1</v>
       </c>
+      <c r="K15">
+        <v>2</v>
+      </c>
       <c r="L15">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="6:12" x14ac:dyDescent="0.35">
       <c r="G16">
-        <v>118</v>
+        <v>52</v>
       </c>
       <c r="J16" t="s">
         <v>4</v>
       </c>
       <c r="L16">
         <f>SUM(L7:L15)</f>
-        <v>500</v>
+        <v>3949</v>
       </c>
     </row>
     <row r="17" spans="6:14" x14ac:dyDescent="0.35">
       <c r="G17">
-        <v>5</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="6:14" x14ac:dyDescent="0.35">
       <c r="G18">
-        <v>70</v>
+        <v>15</v>
       </c>
       <c r="N18" t="s">
         <v>9</v>
@@ -642,317 +619,271 @@
     </row>
     <row r="19" spans="6:14" x14ac:dyDescent="0.35">
       <c r="G19">
-        <v>148</v>
+        <v>21</v>
       </c>
       <c r="I19" t="s">
         <v>6</v>
       </c>
       <c r="J19">
         <f>SUM(G4:G82)</f>
-        <v>3429</v>
+        <v>3111</v>
       </c>
       <c r="L19" t="s">
         <v>7</v>
       </c>
       <c r="M19">
         <f>L16</f>
-        <v>500</v>
+        <v>3949</v>
       </c>
       <c r="N19">
         <f>M20-(M19-J19)</f>
-        <v>3739</v>
+        <v>-7</v>
       </c>
     </row>
     <row r="20" spans="6:14" x14ac:dyDescent="0.35">
       <c r="G20">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="I20" t="s">
         <v>5</v>
       </c>
       <c r="J20">
         <f>SUM(F4:F323)</f>
-        <v>1683</v>
+        <v>203</v>
       </c>
       <c r="L20" t="s">
         <v>8</v>
       </c>
       <c r="M20">
         <f>K2</f>
-        <v>810</v>
+        <v>831</v>
       </c>
     </row>
     <row r="21" spans="6:14" x14ac:dyDescent="0.35">
       <c r="G21">
-        <v>7</v>
+        <v>55</v>
       </c>
     </row>
     <row r="22" spans="6:14" x14ac:dyDescent="0.35">
-      <c r="F22">
-        <v>360</v>
+      <c r="G22">
+        <v>9</v>
       </c>
       <c r="M22" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="23" spans="6:14" x14ac:dyDescent="0.35">
-      <c r="F23">
-        <v>23</v>
+      <c r="G23">
+        <v>62</v>
       </c>
     </row>
     <row r="24" spans="6:14" x14ac:dyDescent="0.35">
       <c r="G24">
-        <v>30</v>
+        <v>142</v>
       </c>
     </row>
     <row r="25" spans="6:14" x14ac:dyDescent="0.35">
-      <c r="F25">
-        <v>60</v>
+      <c r="G25">
+        <v>8</v>
       </c>
     </row>
     <row r="26" spans="6:14" x14ac:dyDescent="0.35">
-      <c r="F26">
-        <v>8</v>
+      <c r="G26">
+        <v>10</v>
       </c>
     </row>
     <row r="27" spans="6:14" x14ac:dyDescent="0.35">
-      <c r="G27">
-        <v>91</v>
+      <c r="F27">
+        <v>35</v>
       </c>
     </row>
     <row r="28" spans="6:14" x14ac:dyDescent="0.35">
       <c r="G28">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="29" spans="6:14" x14ac:dyDescent="0.35">
       <c r="G29">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="30" spans="6:14" x14ac:dyDescent="0.35">
-      <c r="F30">
-        <v>20</v>
+      <c r="G30">
+        <v>14</v>
       </c>
     </row>
     <row r="31" spans="6:14" x14ac:dyDescent="0.35">
       <c r="G31">
-        <v>5</v>
+        <v>41</v>
       </c>
     </row>
     <row r="32" spans="6:14" x14ac:dyDescent="0.35">
       <c r="G32">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="33" spans="6:7" x14ac:dyDescent="0.35">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33" spans="7:7" x14ac:dyDescent="0.35">
       <c r="G33">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="34" spans="6:7" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="7:7" x14ac:dyDescent="0.35">
       <c r="G34">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="35" spans="6:7" x14ac:dyDescent="0.35">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="7:7" x14ac:dyDescent="0.35">
       <c r="G35">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="36" spans="6:7" x14ac:dyDescent="0.35">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="36" spans="7:7" x14ac:dyDescent="0.35">
       <c r="G36">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="37" spans="6:7" x14ac:dyDescent="0.35">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="37" spans="7:7" x14ac:dyDescent="0.35">
       <c r="G37">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="38" spans="6:7" x14ac:dyDescent="0.35">
-      <c r="F38">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="39" spans="6:7" x14ac:dyDescent="0.35">
-      <c r="G39">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="40" spans="6:7" x14ac:dyDescent="0.35">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="38" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G38">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="40" spans="7:7" x14ac:dyDescent="0.35">
       <c r="G40">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="41" spans="6:7" x14ac:dyDescent="0.35">
-      <c r="F41">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="42" spans="6:7" x14ac:dyDescent="0.35">
-      <c r="F42">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="43" spans="6:7" x14ac:dyDescent="0.35">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G41">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="42" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G42">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="43" spans="7:7" x14ac:dyDescent="0.35">
       <c r="G43">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="44" spans="6:7" x14ac:dyDescent="0.35">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="44" spans="7:7" x14ac:dyDescent="0.35">
       <c r="G44">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="45" spans="6:7" x14ac:dyDescent="0.35">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="45" spans="7:7" x14ac:dyDescent="0.35">
       <c r="G45">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="46" spans="6:7" x14ac:dyDescent="0.35">
-      <c r="F46">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="47" spans="6:7" x14ac:dyDescent="0.35">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="46" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G46">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47" spans="7:7" x14ac:dyDescent="0.35">
       <c r="G47">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="48" spans="6:7" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="7:7" x14ac:dyDescent="0.35">
       <c r="G48">
-        <v>7</v>
+        <v>20</v>
       </c>
     </row>
     <row r="49" spans="6:7" x14ac:dyDescent="0.35">
       <c r="G49">
-        <v>14</v>
+        <v>29</v>
       </c>
     </row>
     <row r="50" spans="6:7" x14ac:dyDescent="0.35">
-      <c r="F50">
-        <v>91</v>
+      <c r="G50">
+        <v>38</v>
       </c>
     </row>
     <row r="51" spans="6:7" x14ac:dyDescent="0.35">
       <c r="G51">
-        <v>25</v>
+        <v>211</v>
       </c>
     </row>
     <row r="52" spans="6:7" x14ac:dyDescent="0.35">
       <c r="G52">
-        <v>140</v>
+        <v>12</v>
       </c>
     </row>
     <row r="53" spans="6:7" x14ac:dyDescent="0.35">
       <c r="G53">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="54" spans="6:7" x14ac:dyDescent="0.35">
       <c r="G54">
-        <v>55</v>
+        <v>70</v>
       </c>
     </row>
     <row r="55" spans="6:7" x14ac:dyDescent="0.35">
       <c r="G55">
-        <v>40</v>
+        <v>58</v>
       </c>
     </row>
     <row r="56" spans="6:7" x14ac:dyDescent="0.35">
       <c r="G56">
-        <v>36</v>
+        <v>3</v>
       </c>
     </row>
     <row r="57" spans="6:7" x14ac:dyDescent="0.35">
       <c r="G57">
-        <v>54</v>
+        <v>24</v>
       </c>
     </row>
     <row r="58" spans="6:7" x14ac:dyDescent="0.35">
       <c r="G58">
-        <v>2</v>
+        <v>46</v>
       </c>
     </row>
     <row r="59" spans="6:7" x14ac:dyDescent="0.35">
       <c r="G59">
-        <v>18</v>
+        <v>152</v>
       </c>
     </row>
     <row r="60" spans="6:7" x14ac:dyDescent="0.35">
       <c r="G60">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="61" spans="6:7" x14ac:dyDescent="0.35">
       <c r="G61">
-        <v>44</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="6:7" x14ac:dyDescent="0.35">
       <c r="G62">
-        <v>165</v>
+        <v>150</v>
       </c>
     </row>
     <row r="63" spans="6:7" x14ac:dyDescent="0.35">
       <c r="G63">
-        <v>27</v>
+        <v>10</v>
       </c>
     </row>
     <row r="64" spans="6:7" x14ac:dyDescent="0.35">
       <c r="F64">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="65" spans="6:7" x14ac:dyDescent="0.35">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="65" spans="7:7" x14ac:dyDescent="0.35">
       <c r="G65">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="66" spans="6:7" x14ac:dyDescent="0.35">
-      <c r="G66">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="67" spans="6:7" x14ac:dyDescent="0.35">
-      <c r="G67">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="68" spans="6:7" x14ac:dyDescent="0.35">
-      <c r="G68">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="69" spans="6:7" x14ac:dyDescent="0.35">
-      <c r="G69">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="70" spans="6:7" x14ac:dyDescent="0.35">
-      <c r="F70">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="71" spans="6:7" x14ac:dyDescent="0.35">
-      <c r="G71">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="72" spans="6:7" x14ac:dyDescent="0.35">
-      <c r="G72">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="73" spans="6:7" x14ac:dyDescent="0.35">
-      <c r="G73">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/benefit.xlsx
+++ b/benefit.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\te\arduino\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC8974FB-4301-476D-9E3D-992053F43617}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F49AA22-C51A-4DC5-8736-BD349F160E49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{562C186B-7536-4815-983F-BCFB6FE581BA}"/>
   </bookViews>
@@ -24,6 +24,40 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>DELL</author>
+  </authors>
+  <commentList>
+    <comment ref="G24" authorId="0" shapeId="0" xr:uid="{193B694D-0660-48C9-B038-C3F1B93EAFC2}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>DELL:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+chưa nhận tiền</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
@@ -64,13 +98,26 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -408,11 +455,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42D720BC-90CD-453C-B61F-4B80DD7C9570}">
-  <dimension ref="F2:N65"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42D720BC-90CD-453C-B61F-4B80DD7C9570}">
+  <dimension ref="F2:N75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G39" sqref="G39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7:K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -428,7 +475,7 @@
         <v>2</v>
       </c>
       <c r="K2">
-        <v>831</v>
+        <v>3962</v>
       </c>
     </row>
     <row r="3" spans="6:12" x14ac:dyDescent="0.35">
@@ -441,17 +488,17 @@
     </row>
     <row r="4" spans="6:12" x14ac:dyDescent="0.35">
       <c r="G4">
-        <v>40</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="6:12" x14ac:dyDescent="0.35">
       <c r="G5">
-        <v>29</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="6:12" x14ac:dyDescent="0.35">
       <c r="G6">
-        <v>4</v>
+        <v>100</v>
       </c>
       <c r="K6" t="s">
         <v>3</v>
@@ -459,107 +506,104 @@
     </row>
     <row r="7" spans="6:12" x14ac:dyDescent="0.35">
       <c r="G7">
-        <v>32</v>
+        <v>58</v>
       </c>
       <c r="J7">
         <v>500</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="L7">
         <f>K7*J7</f>
-        <v>1500</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="8" spans="6:12" x14ac:dyDescent="0.35">
       <c r="G8">
-        <v>120</v>
+        <v>41</v>
       </c>
       <c r="J8">
         <v>200</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="L8">
         <f t="shared" ref="L8:L15" si="0">K8*J8</f>
-        <v>600</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="9" spans="6:12" x14ac:dyDescent="0.35">
       <c r="G9">
-        <v>5</v>
+        <v>78</v>
       </c>
       <c r="J9">
         <v>100</v>
       </c>
       <c r="K9">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="L9">
         <f t="shared" si="0"/>
-        <v>1500</v>
+        <v>2600</v>
       </c>
     </row>
     <row r="10" spans="6:12" x14ac:dyDescent="0.35">
-      <c r="G10">
-        <v>105</v>
+      <c r="F10">
+        <v>42.5</v>
       </c>
       <c r="J10">
         <v>50</v>
       </c>
       <c r="K10">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="L10">
         <f t="shared" si="0"/>
-        <v>250</v>
+        <v>400</v>
       </c>
     </row>
     <row r="11" spans="6:12" x14ac:dyDescent="0.35">
       <c r="G11">
-        <v>13</v>
+        <v>85</v>
       </c>
       <c r="J11">
         <v>20</v>
       </c>
-      <c r="K11">
-        <v>2</v>
-      </c>
       <c r="L11">
         <f t="shared" si="0"/>
-        <v>40</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="6:12" x14ac:dyDescent="0.35">
-      <c r="F12">
-        <v>22</v>
+      <c r="G12">
+        <v>14</v>
       </c>
       <c r="J12">
         <v>10</v>
       </c>
       <c r="K12">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L12">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="6:12" x14ac:dyDescent="0.35">
       <c r="G13">
-        <v>274</v>
+        <v>243</v>
       </c>
       <c r="J13">
         <v>5</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="L13">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="6:12" x14ac:dyDescent="0.35">
@@ -570,48 +614,48 @@
         <v>2</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L14">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="6:12" x14ac:dyDescent="0.35">
       <c r="G15">
-        <v>155</v>
+        <v>10</v>
       </c>
       <c r="J15">
         <v>1</v>
       </c>
       <c r="K15">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L15">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="6:12" x14ac:dyDescent="0.35">
       <c r="G16">
-        <v>52</v>
+        <v>340</v>
       </c>
       <c r="J16" t="s">
         <v>4</v>
       </c>
       <c r="L16">
         <f>SUM(L7:L15)</f>
-        <v>3949</v>
+        <v>8262</v>
       </c>
     </row>
     <row r="17" spans="6:14" x14ac:dyDescent="0.35">
-      <c r="G17">
-        <v>30</v>
+      <c r="F17">
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="6:14" x14ac:dyDescent="0.35">
       <c r="G18">
-        <v>15</v>
+        <v>67</v>
       </c>
       <c r="N18" t="s">
         <v>9</v>
@@ -619,54 +663,54 @@
     </row>
     <row r="19" spans="6:14" x14ac:dyDescent="0.35">
       <c r="G19">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="I19" t="s">
         <v>6</v>
       </c>
       <c r="J19">
         <f>SUM(G4:G82)</f>
-        <v>3111</v>
+        <v>4286</v>
       </c>
       <c r="L19" t="s">
         <v>7</v>
       </c>
       <c r="M19">
         <f>L16</f>
-        <v>3949</v>
+        <v>8262</v>
       </c>
       <c r="N19">
         <f>M20-(M19-J19)</f>
-        <v>-7</v>
+        <v>-14</v>
       </c>
     </row>
     <row r="20" spans="6:14" x14ac:dyDescent="0.35">
       <c r="G20">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="I20" t="s">
         <v>5</v>
       </c>
       <c r="J20">
         <f>SUM(F4:F323)</f>
-        <v>203</v>
+        <v>1612</v>
       </c>
       <c r="L20" t="s">
         <v>8</v>
       </c>
       <c r="M20">
         <f>K2</f>
-        <v>831</v>
+        <v>3962</v>
       </c>
     </row>
     <row r="21" spans="6:14" x14ac:dyDescent="0.35">
       <c r="G21">
-        <v>55</v>
+        <v>220</v>
       </c>
     </row>
     <row r="22" spans="6:14" x14ac:dyDescent="0.35">
       <c r="G22">
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="M22" t="s">
         <v>10</v>
@@ -674,216 +718,268 @@
     </row>
     <row r="23" spans="6:14" x14ac:dyDescent="0.35">
       <c r="G23">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="24" spans="6:14" x14ac:dyDescent="0.35">
-      <c r="G24">
-        <v>142</v>
-      </c>
-    </row>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="6:14" x14ac:dyDescent="0.35"/>
     <row r="25" spans="6:14" x14ac:dyDescent="0.35">
-      <c r="G25">
-        <v>8</v>
+      <c r="F25">
+        <v>59.5</v>
       </c>
     </row>
     <row r="26" spans="6:14" x14ac:dyDescent="0.35">
       <c r="G26">
-        <v>10</v>
+        <v>250</v>
       </c>
     </row>
     <row r="27" spans="6:14" x14ac:dyDescent="0.35">
-      <c r="F27">
-        <v>35</v>
+      <c r="G27">
+        <v>26</v>
       </c>
     </row>
     <row r="28" spans="6:14" x14ac:dyDescent="0.35">
       <c r="G28">
-        <v>28</v>
+        <v>150</v>
       </c>
     </row>
     <row r="29" spans="6:14" x14ac:dyDescent="0.35">
       <c r="G29">
-        <v>23</v>
+        <v>4</v>
       </c>
     </row>
     <row r="30" spans="6:14" x14ac:dyDescent="0.35">
       <c r="G30">
-        <v>14</v>
+        <v>35</v>
       </c>
     </row>
     <row r="31" spans="6:14" x14ac:dyDescent="0.35">
-      <c r="G31">
-        <v>41</v>
+      <c r="F31">
+        <v>395</v>
       </c>
     </row>
     <row r="32" spans="6:14" x14ac:dyDescent="0.35">
       <c r="G32">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="33" spans="7:7" x14ac:dyDescent="0.35">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="33" spans="6:7" x14ac:dyDescent="0.35">
       <c r="G33">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G34">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="35" spans="7:7" x14ac:dyDescent="0.35">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="34" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F34">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="35" spans="6:7" x14ac:dyDescent="0.35">
       <c r="G35">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="36" spans="7:7" x14ac:dyDescent="0.35">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="36" spans="6:7" x14ac:dyDescent="0.35">
       <c r="G36">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="37" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G37">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="38" spans="7:7" x14ac:dyDescent="0.35">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="37" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F37">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="38" spans="6:7" x14ac:dyDescent="0.35">
       <c r="G38">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="40" spans="7:7" x14ac:dyDescent="0.35">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="39" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="G39">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="40" spans="6:7" x14ac:dyDescent="0.35">
       <c r="G40">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="41" spans="7:7" x14ac:dyDescent="0.35">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="41" spans="6:7" x14ac:dyDescent="0.35">
       <c r="G41">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="42" spans="7:7" x14ac:dyDescent="0.35">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="42" spans="6:7" x14ac:dyDescent="0.35">
       <c r="G42">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="43" spans="7:7" x14ac:dyDescent="0.35">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="43" spans="6:7" x14ac:dyDescent="0.35">
       <c r="G43">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="44" spans="7:7" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="6:7" x14ac:dyDescent="0.35">
       <c r="G44">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="45" spans="7:7" x14ac:dyDescent="0.35">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="45" spans="6:7" x14ac:dyDescent="0.35">
       <c r="G45">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="46" spans="7:7" x14ac:dyDescent="0.35">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="46" spans="6:7" x14ac:dyDescent="0.35">
       <c r="G46">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="47" spans="7:7" x14ac:dyDescent="0.35">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="47" spans="6:7" x14ac:dyDescent="0.35">
       <c r="G47">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="7:7" x14ac:dyDescent="0.35">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="48" spans="6:7" x14ac:dyDescent="0.35">
       <c r="G48">
-        <v>20</v>
+        <v>149</v>
       </c>
     </row>
     <row r="49" spans="6:7" x14ac:dyDescent="0.35">
       <c r="G49">
-        <v>29</v>
+        <v>57</v>
       </c>
     </row>
     <row r="50" spans="6:7" x14ac:dyDescent="0.35">
-      <c r="G50">
-        <v>38</v>
+      <c r="F50">
+        <v>360</v>
       </c>
     </row>
     <row r="51" spans="6:7" x14ac:dyDescent="0.35">
       <c r="G51">
-        <v>211</v>
+        <v>43</v>
       </c>
     </row>
     <row r="52" spans="6:7" x14ac:dyDescent="0.35">
       <c r="G52">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="53" spans="6:7" x14ac:dyDescent="0.35">
       <c r="G53">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="54" spans="6:7" x14ac:dyDescent="0.35">
       <c r="G54">
-        <v>70</v>
+        <v>36</v>
       </c>
     </row>
     <row r="55" spans="6:7" x14ac:dyDescent="0.35">
       <c r="G55">
-        <v>58</v>
+        <v>40</v>
       </c>
     </row>
     <row r="56" spans="6:7" x14ac:dyDescent="0.35">
       <c r="G56">
-        <v>3</v>
+        <v>179</v>
       </c>
     </row>
     <row r="57" spans="6:7" x14ac:dyDescent="0.35">
       <c r="G57">
-        <v>24</v>
+        <v>3</v>
       </c>
     </row>
     <row r="58" spans="6:7" x14ac:dyDescent="0.35">
       <c r="G58">
-        <v>46</v>
+        <v>25</v>
       </c>
     </row>
     <row r="59" spans="6:7" x14ac:dyDescent="0.35">
       <c r="G59">
-        <v>152</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="6:7" x14ac:dyDescent="0.35">
-      <c r="G60">
-        <v>40</v>
+      <c r="F60">
+        <v>366</v>
       </c>
     </row>
     <row r="61" spans="6:7" x14ac:dyDescent="0.35">
       <c r="G61">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="62" spans="6:7" x14ac:dyDescent="0.35">
-      <c r="G62">
-        <v>150</v>
+      <c r="F62">
+        <v>65</v>
       </c>
     </row>
     <row r="63" spans="6:7" x14ac:dyDescent="0.35">
       <c r="G63">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="64" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="G64">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="65" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="G65">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="66" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="G66">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="G67">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="68" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="G68">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="69" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="G69">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="70" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F70">
         <v>10</v>
       </c>
     </row>
-    <row r="64" spans="6:7" x14ac:dyDescent="0.35">
-      <c r="F64">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="65" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G65">
-        <v>18</v>
+    <row r="71" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="G71">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="72" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="G72">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="73" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="G73">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="74" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="G74">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="75" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="G75">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/benefit.xlsx
+++ b/benefit.xlsx
@@ -5,20 +5,31 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\te\arduino\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dragon\Desktop\arduino\arduino\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F49AA22-C51A-4DC5-8736-BD349F160E49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B695B6A2-7ADD-42B5-A34C-37DE717CD6F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{562C186B-7536-4815-983F-BCFB6FE581BA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{562C186B-7536-4815-983F-BCFB6FE581BA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -458,19 +469,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42D720BC-90CD-453C-B61F-4B80DD7C9570}">
   <dimension ref="F2:N75"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7:K15"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="N25" sqref="N25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="6" max="6" width="12.7265625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.90625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="2" spans="6:12" x14ac:dyDescent="0.25">
       <c r="J2" t="s">
         <v>2</v>
       </c>
@@ -478,7 +489,7 @@
         <v>3962</v>
       </c>
     </row>
-    <row r="3" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F3" t="s">
         <v>1</v>
       </c>
@@ -486,17 +497,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="6:12" x14ac:dyDescent="0.25">
       <c r="G4">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="5" spans="6:12" x14ac:dyDescent="0.25">
       <c r="G5">
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="6" spans="6:12" x14ac:dyDescent="0.25">
       <c r="G6">
         <v>100</v>
       </c>
@@ -504,7 +515,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="7" spans="6:12" x14ac:dyDescent="0.25">
       <c r="G7">
         <v>58</v>
       </c>
@@ -519,7 +530,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="8" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="8" spans="6:12" x14ac:dyDescent="0.25">
       <c r="G8">
         <v>41</v>
       </c>
@@ -534,7 +545,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="9" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="9" spans="6:12" x14ac:dyDescent="0.25">
       <c r="G9">
         <v>78</v>
       </c>
@@ -549,7 +560,7 @@
         <v>2600</v>
       </c>
     </row>
-    <row r="10" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="10" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F10">
         <v>42.5</v>
       </c>
@@ -564,7 +575,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="11" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="11" spans="6:12" x14ac:dyDescent="0.25">
       <c r="G11">
         <v>85</v>
       </c>
@@ -576,7 +587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="12" spans="6:12" x14ac:dyDescent="0.25">
       <c r="G12">
         <v>14</v>
       </c>
@@ -591,7 +602,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="13" spans="6:12" x14ac:dyDescent="0.25">
       <c r="G13">
         <v>243</v>
       </c>
@@ -606,7 +617,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="14" spans="6:12" x14ac:dyDescent="0.25">
       <c r="G14">
         <v>13</v>
       </c>
@@ -621,7 +632,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="15" spans="6:12" x14ac:dyDescent="0.25">
       <c r="G15">
         <v>10</v>
       </c>
@@ -636,7 +647,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="16" spans="6:12" x14ac:dyDescent="0.25">
       <c r="G16">
         <v>340</v>
       </c>
@@ -648,12 +659,12 @@
         <v>8262</v>
       </c>
     </row>
-    <row r="17" spans="6:14" x14ac:dyDescent="0.35">
+    <row r="17" spans="6:14" x14ac:dyDescent="0.25">
       <c r="F17">
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="6:14" x14ac:dyDescent="0.35">
+    <row r="18" spans="6:14" x14ac:dyDescent="0.25">
       <c r="G18">
         <v>67</v>
       </c>
@@ -661,7 +672,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="6:14" x14ac:dyDescent="0.35">
+    <row r="19" spans="6:14" x14ac:dyDescent="0.25">
       <c r="G19">
         <v>9</v>
       </c>
@@ -669,8 +680,8 @@
         <v>6</v>
       </c>
       <c r="J19">
-        <f>SUM(G4:G82)</f>
-        <v>4286</v>
+        <f>SUM(G4:G97)</f>
+        <v>4285</v>
       </c>
       <c r="L19" t="s">
         <v>7</v>
@@ -681,10 +692,10 @@
       </c>
       <c r="N19">
         <f>M20-(M19-J19)</f>
-        <v>-14</v>
-      </c>
-    </row>
-    <row r="20" spans="6:14" x14ac:dyDescent="0.35">
+        <v>-15</v>
+      </c>
+    </row>
+    <row r="20" spans="6:14" x14ac:dyDescent="0.25">
       <c r="G20">
         <v>47</v>
       </c>
@@ -703,12 +714,12 @@
         <v>3962</v>
       </c>
     </row>
-    <row r="21" spans="6:14" x14ac:dyDescent="0.35">
+    <row r="21" spans="6:14" x14ac:dyDescent="0.25">
       <c r="G21">
         <v>220</v>
       </c>
     </row>
-    <row r="22" spans="6:14" x14ac:dyDescent="0.35">
+    <row r="22" spans="6:14" x14ac:dyDescent="0.25">
       <c r="G22">
         <v>50</v>
       </c>
@@ -716,270 +727,270 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="6:14" x14ac:dyDescent="0.35">
+    <row r="23" spans="6:14" x14ac:dyDescent="0.25">
       <c r="G23">
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="6:14" x14ac:dyDescent="0.35"/>
-    <row r="25" spans="6:14" x14ac:dyDescent="0.35">
+    <row r="24" spans="6:14" x14ac:dyDescent="0.25"/>
+    <row r="25" spans="6:14" x14ac:dyDescent="0.25">
       <c r="F25">
         <v>59.5</v>
       </c>
     </row>
-    <row r="26" spans="6:14" x14ac:dyDescent="0.35">
+    <row r="26" spans="6:14" x14ac:dyDescent="0.25">
       <c r="G26">
         <v>250</v>
       </c>
     </row>
-    <row r="27" spans="6:14" x14ac:dyDescent="0.35">
+    <row r="27" spans="6:14" x14ac:dyDescent="0.25">
       <c r="G27">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="28" spans="6:14" x14ac:dyDescent="0.35">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="28" spans="6:14" x14ac:dyDescent="0.25">
       <c r="G28">
         <v>150</v>
       </c>
     </row>
-    <row r="29" spans="6:14" x14ac:dyDescent="0.35">
+    <row r="29" spans="6:14" x14ac:dyDescent="0.25">
       <c r="G29">
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="6:14" x14ac:dyDescent="0.35">
+    <row r="30" spans="6:14" x14ac:dyDescent="0.25">
       <c r="G30">
         <v>35</v>
       </c>
     </row>
-    <row r="31" spans="6:14" x14ac:dyDescent="0.35">
+    <row r="31" spans="6:14" x14ac:dyDescent="0.25">
       <c r="F31">
         <v>395</v>
       </c>
     </row>
-    <row r="32" spans="6:14" x14ac:dyDescent="0.35">
+    <row r="32" spans="6:14" x14ac:dyDescent="0.25">
       <c r="G32">
         <v>54</v>
       </c>
     </row>
-    <row r="33" spans="6:7" x14ac:dyDescent="0.35">
+    <row r="33" spans="6:7" x14ac:dyDescent="0.25">
       <c r="G33">
         <v>228</v>
       </c>
     </row>
-    <row r="34" spans="6:7" x14ac:dyDescent="0.35">
+    <row r="34" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F34">
         <v>89</v>
       </c>
     </row>
-    <row r="35" spans="6:7" x14ac:dyDescent="0.35">
+    <row r="35" spans="6:7" x14ac:dyDescent="0.25">
       <c r="G35">
         <v>52</v>
       </c>
     </row>
-    <row r="36" spans="6:7" x14ac:dyDescent="0.35">
+    <row r="36" spans="6:7" x14ac:dyDescent="0.25">
       <c r="G36">
         <v>89</v>
       </c>
     </row>
-    <row r="37" spans="6:7" x14ac:dyDescent="0.35">
+    <row r="37" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F37">
         <v>205</v>
       </c>
     </row>
-    <row r="38" spans="6:7" x14ac:dyDescent="0.35">
+    <row r="38" spans="6:7" x14ac:dyDescent="0.25">
       <c r="G38">
         <v>12</v>
       </c>
     </row>
-    <row r="39" spans="6:7" x14ac:dyDescent="0.35">
+    <row r="39" spans="6:7" x14ac:dyDescent="0.25">
       <c r="G39">
         <v>45</v>
       </c>
     </row>
-    <row r="40" spans="6:7" x14ac:dyDescent="0.35">
+    <row r="40" spans="6:7" x14ac:dyDescent="0.25">
       <c r="G40">
         <v>38</v>
       </c>
     </row>
-    <row r="41" spans="6:7" x14ac:dyDescent="0.35">
+    <row r="41" spans="6:7" x14ac:dyDescent="0.25">
       <c r="G41">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="42" spans="6:7" x14ac:dyDescent="0.35">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="42" spans="6:7" x14ac:dyDescent="0.25">
       <c r="G42">
         <v>12</v>
       </c>
     </row>
-    <row r="43" spans="6:7" x14ac:dyDescent="0.35">
+    <row r="43" spans="6:7" x14ac:dyDescent="0.25">
       <c r="G43">
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="6:7" x14ac:dyDescent="0.35">
+    <row r="44" spans="6:7" x14ac:dyDescent="0.25">
       <c r="G44">
         <v>96</v>
       </c>
     </row>
-    <row r="45" spans="6:7" x14ac:dyDescent="0.35">
+    <row r="45" spans="6:7" x14ac:dyDescent="0.25">
       <c r="G45">
         <v>129</v>
       </c>
     </row>
-    <row r="46" spans="6:7" x14ac:dyDescent="0.35">
+    <row r="46" spans="6:7" x14ac:dyDescent="0.25">
       <c r="G46">
         <v>82</v>
       </c>
     </row>
-    <row r="47" spans="6:7" x14ac:dyDescent="0.35">
+    <row r="47" spans="6:7" x14ac:dyDescent="0.25">
       <c r="G47">
         <v>140</v>
       </c>
     </row>
-    <row r="48" spans="6:7" x14ac:dyDescent="0.35">
+    <row r="48" spans="6:7" x14ac:dyDescent="0.25">
       <c r="G48">
         <v>149</v>
       </c>
     </row>
-    <row r="49" spans="6:7" x14ac:dyDescent="0.35">
+    <row r="49" spans="6:7" x14ac:dyDescent="0.25">
       <c r="G49">
         <v>57</v>
       </c>
     </row>
-    <row r="50" spans="6:7" x14ac:dyDescent="0.35">
+    <row r="50" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F50">
         <v>360</v>
       </c>
     </row>
-    <row r="51" spans="6:7" x14ac:dyDescent="0.35">
+    <row r="51" spans="6:7" x14ac:dyDescent="0.25">
       <c r="G51">
         <v>43</v>
       </c>
     </row>
-    <row r="52" spans="6:7" x14ac:dyDescent="0.35">
+    <row r="52" spans="6:7" x14ac:dyDescent="0.25">
       <c r="G52">
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="6:7" x14ac:dyDescent="0.35">
+    <row r="53" spans="6:7" x14ac:dyDescent="0.25">
       <c r="G53">
         <v>23</v>
       </c>
     </row>
-    <row r="54" spans="6:7" x14ac:dyDescent="0.35">
+    <row r="54" spans="6:7" x14ac:dyDescent="0.25">
       <c r="G54">
         <v>36</v>
       </c>
     </row>
-    <row r="55" spans="6:7" x14ac:dyDescent="0.35">
+    <row r="55" spans="6:7" x14ac:dyDescent="0.25">
       <c r="G55">
         <v>40</v>
       </c>
     </row>
-    <row r="56" spans="6:7" x14ac:dyDescent="0.35">
+    <row r="56" spans="6:7" x14ac:dyDescent="0.25">
       <c r="G56">
         <v>179</v>
       </c>
     </row>
-    <row r="57" spans="6:7" x14ac:dyDescent="0.35">
+    <row r="57" spans="6:7" x14ac:dyDescent="0.25">
       <c r="G57">
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="6:7" x14ac:dyDescent="0.35">
+    <row r="58" spans="6:7" x14ac:dyDescent="0.25">
       <c r="G58">
         <v>25</v>
       </c>
     </row>
-    <row r="59" spans="6:7" x14ac:dyDescent="0.35">
+    <row r="59" spans="6:7" x14ac:dyDescent="0.25">
       <c r="G59">
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="6:7" x14ac:dyDescent="0.35">
+    <row r="60" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F60">
         <v>366</v>
       </c>
     </row>
-    <row r="61" spans="6:7" x14ac:dyDescent="0.35">
+    <row r="61" spans="6:7" x14ac:dyDescent="0.25">
       <c r="G61">
         <v>4</v>
       </c>
     </row>
-    <row r="62" spans="6:7" x14ac:dyDescent="0.35">
+    <row r="62" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F62">
         <v>65</v>
       </c>
     </row>
-    <row r="63" spans="6:7" x14ac:dyDescent="0.35">
+    <row r="63" spans="6:7" x14ac:dyDescent="0.25">
       <c r="G63">
         <v>12</v>
       </c>
     </row>
-    <row r="64" spans="6:7" x14ac:dyDescent="0.35">
+    <row r="64" spans="6:7" x14ac:dyDescent="0.25">
       <c r="G64">
         <v>16</v>
       </c>
     </row>
-    <row r="65" spans="6:7" x14ac:dyDescent="0.35">
+    <row r="65" spans="6:7" x14ac:dyDescent="0.25">
       <c r="G65">
         <v>34</v>
       </c>
     </row>
-    <row r="66" spans="6:7" x14ac:dyDescent="0.35">
+    <row r="66" spans="6:7" x14ac:dyDescent="0.25">
       <c r="G66">
         <v>5</v>
       </c>
     </row>
-    <row r="67" spans="6:7" x14ac:dyDescent="0.35">
+    <row r="67" spans="6:7" x14ac:dyDescent="0.25">
       <c r="G67">
         <v>63</v>
       </c>
     </row>
-    <row r="68" spans="6:7" x14ac:dyDescent="0.35">
+    <row r="68" spans="6:7" x14ac:dyDescent="0.25">
       <c r="G68">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="69" spans="6:7" x14ac:dyDescent="0.35">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="69" spans="6:7" x14ac:dyDescent="0.25">
       <c r="G69">
         <v>48</v>
       </c>
     </row>
-    <row r="70" spans="6:7" x14ac:dyDescent="0.35">
+    <row r="70" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F70">
         <v>10</v>
       </c>
     </row>
-    <row r="71" spans="6:7" x14ac:dyDescent="0.35">
+    <row r="71" spans="6:7" x14ac:dyDescent="0.25">
       <c r="G71">
         <v>36</v>
       </c>
     </row>
-    <row r="72" spans="6:7" x14ac:dyDescent="0.35">
+    <row r="72" spans="6:7" x14ac:dyDescent="0.25">
       <c r="G72">
         <v>120</v>
       </c>
     </row>
-    <row r="73" spans="6:7" x14ac:dyDescent="0.35">
+    <row r="73" spans="6:7" x14ac:dyDescent="0.25">
       <c r="G73">
         <v>231</v>
       </c>
     </row>
-    <row r="74" spans="6:7" x14ac:dyDescent="0.35">
+    <row r="74" spans="6:7" x14ac:dyDescent="0.25">
       <c r="G74">
         <v>24</v>
       </c>
     </row>
-    <row r="75" spans="6:7" x14ac:dyDescent="0.35">
+    <row r="75" spans="6:7" x14ac:dyDescent="0.25">
       <c r="G75">
         <v>60</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/benefit.xlsx
+++ b/benefit.xlsx
@@ -5,70 +5,25 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dragon\Desktop\arduino\arduino\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\te\arduino\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B695B6A2-7ADD-42B5-A34C-37DE717CD6F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3971B180-0C00-4C10-B68C-58087B5219F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{562C186B-7536-4815-983F-BCFB6FE581BA}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{562C186B-7536-4815-983F-BCFB6FE581BA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>DELL</author>
-  </authors>
-  <commentList>
-    <comment ref="G24" authorId="0" shapeId="0" xr:uid="{193B694D-0660-48C9-B038-C3F1B93EAFC2}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>DELL:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-chưa nhận tiền</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
@@ -109,7 +64,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -118,17 +73,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -139,7 +87,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -147,12 +95,30 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -466,30 +432,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42D720BC-90CD-453C-B61F-4B80DD7C9570}">
-  <dimension ref="F2:N75"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42D720BC-90CD-453C-B61F-4B80DD7C9570}">
+  <dimension ref="F2:N67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="N25" sqref="N25"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="6" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7265625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.453125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="6:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="6:12" x14ac:dyDescent="0.35">
       <c r="J2" t="s">
         <v>2</v>
       </c>
       <c r="K2">
-        <v>3962</v>
-      </c>
-    </row>
-    <row r="3" spans="6:12" x14ac:dyDescent="0.25">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="3" spans="6:12" x14ac:dyDescent="0.35">
       <c r="F3" t="s">
         <v>1</v>
       </c>
@@ -497,119 +463,122 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="6:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="6:12" x14ac:dyDescent="0.35">
       <c r="G4">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="6:12" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="6:12" x14ac:dyDescent="0.35">
       <c r="G5">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="6" spans="6:12" x14ac:dyDescent="0.25">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="6" spans="6:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="G6">
-        <v>100</v>
+        <v>28</v>
       </c>
       <c r="K6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="6:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="6:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="G7">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="J7">
         <v>500</v>
       </c>
-      <c r="K7">
-        <v>8</v>
+      <c r="K7" s="1">
+        <v>7</v>
       </c>
       <c r="L7">
         <f>K7*J7</f>
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="8" spans="6:12" x14ac:dyDescent="0.25">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="8" spans="6:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="G8">
-        <v>41</v>
+        <v>75</v>
       </c>
       <c r="J8">
         <v>200</v>
       </c>
-      <c r="K8">
-        <v>6</v>
+      <c r="K8" s="1">
+        <v>4</v>
       </c>
       <c r="L8">
         <f t="shared" ref="L8:L15" si="0">K8*J8</f>
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="9" spans="6:12" x14ac:dyDescent="0.25">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="9" spans="6:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="G9">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="J9">
         <v>100</v>
       </c>
-      <c r="K9">
-        <v>26</v>
+      <c r="K9" s="1">
+        <v>11</v>
       </c>
       <c r="L9">
         <f t="shared" si="0"/>
-        <v>2600</v>
-      </c>
-    </row>
-    <row r="10" spans="6:12" x14ac:dyDescent="0.25">
-      <c r="F10">
-        <v>42.5</v>
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="10" spans="6:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="G10">
+        <v>25</v>
       </c>
       <c r="J10">
         <v>50</v>
       </c>
-      <c r="K10">
-        <v>8</v>
+      <c r="K10" s="1">
+        <v>13</v>
       </c>
       <c r="L10">
         <f t="shared" si="0"/>
-        <v>400</v>
-      </c>
-    </row>
-    <row r="11" spans="6:12" x14ac:dyDescent="0.25">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="11" spans="6:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="G11">
-        <v>85</v>
+        <v>512</v>
       </c>
       <c r="J11">
         <v>20</v>
+      </c>
+      <c r="K11" s="1">
+        <v>0</v>
       </c>
       <c r="L11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="6:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="6:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="G12">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="J12">
         <v>10</v>
       </c>
-      <c r="K12">
-        <v>1</v>
+      <c r="K12" s="1">
+        <v>3</v>
       </c>
       <c r="L12">
         <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="6:12" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="6:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="G13">
-        <v>243</v>
+        <v>98</v>
       </c>
       <c r="J13">
         <v>5</v>
       </c>
-      <c r="K13">
+      <c r="K13" s="1">
         <v>8</v>
       </c>
       <c r="L13">
@@ -617,380 +586,343 @@
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="6:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="6:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="G14">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="J14">
         <v>2</v>
       </c>
-      <c r="K14">
-        <v>4</v>
+      <c r="K14" s="1">
+        <v>8</v>
       </c>
       <c r="L14">
         <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="6:12" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="6:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="G15">
-        <v>10</v>
+        <v>682</v>
       </c>
       <c r="J15">
         <v>1</v>
       </c>
-      <c r="K15">
-        <v>4</v>
+      <c r="K15" s="1">
+        <v>17</v>
       </c>
       <c r="L15">
         <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="6:12" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="6:12" x14ac:dyDescent="0.35">
       <c r="G16">
-        <v>340</v>
+        <v>226</v>
       </c>
       <c r="J16" t="s">
         <v>4</v>
       </c>
       <c r="L16">
         <f>SUM(L7:L15)</f>
-        <v>8262</v>
-      </c>
-    </row>
-    <row r="17" spans="6:14" x14ac:dyDescent="0.25">
-      <c r="F17">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="18" spans="6:14" x14ac:dyDescent="0.25">
+        <v>6153</v>
+      </c>
+    </row>
+    <row r="17" spans="6:14" x14ac:dyDescent="0.35">
+      <c r="G17">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="6:14" x14ac:dyDescent="0.35">
       <c r="G18">
-        <v>67</v>
+        <v>11</v>
       </c>
       <c r="N18" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="6:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="6:14" x14ac:dyDescent="0.35">
       <c r="G19">
-        <v>9</v>
+        <v>175</v>
       </c>
       <c r="I19" t="s">
         <v>6</v>
       </c>
       <c r="J19">
         <f>SUM(G4:G97)</f>
-        <v>4285</v>
+        <v>5371</v>
       </c>
       <c r="L19" t="s">
         <v>7</v>
       </c>
       <c r="M19">
         <f>L16</f>
-        <v>8262</v>
+        <v>6153</v>
       </c>
       <c r="N19">
         <f>M20-(M19-J19)</f>
-        <v>-15</v>
-      </c>
-    </row>
-    <row r="20" spans="6:14" x14ac:dyDescent="0.25">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="20" spans="6:14" x14ac:dyDescent="0.35">
       <c r="G20">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="I20" t="s">
         <v>5</v>
       </c>
       <c r="J20">
         <f>SUM(F4:F323)</f>
-        <v>1612</v>
+        <v>999</v>
       </c>
       <c r="L20" t="s">
         <v>8</v>
       </c>
       <c r="M20">
         <f>K2</f>
-        <v>3962</v>
-      </c>
-    </row>
-    <row r="21" spans="6:14" x14ac:dyDescent="0.25">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="21" spans="6:14" x14ac:dyDescent="0.35">
       <c r="G21">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="22" spans="6:14" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="6:14" x14ac:dyDescent="0.35">
       <c r="G22">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="M22" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="6:14" x14ac:dyDescent="0.25">
-      <c r="G23">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="24" spans="6:14" x14ac:dyDescent="0.25"/>
-    <row r="25" spans="6:14" x14ac:dyDescent="0.25">
-      <c r="F25">
-        <v>59.5</v>
-      </c>
-    </row>
-    <row r="26" spans="6:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="6:14" x14ac:dyDescent="0.35">
+      <c r="F23">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="24" spans="6:14" x14ac:dyDescent="0.35">
+      <c r="G24">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="25" spans="6:14" x14ac:dyDescent="0.35">
+      <c r="G25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="26" spans="6:14" x14ac:dyDescent="0.35">
       <c r="G26">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="27" spans="6:14" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="6:14" x14ac:dyDescent="0.35">
       <c r="G27">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="28" spans="6:14" x14ac:dyDescent="0.25">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="28" spans="6:14" x14ac:dyDescent="0.35">
       <c r="G28">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="29" spans="6:14" x14ac:dyDescent="0.25">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="29" spans="6:14" x14ac:dyDescent="0.35">
       <c r="G29">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="30" spans="6:14" x14ac:dyDescent="0.35">
+      <c r="G30">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="6:14" x14ac:dyDescent="0.35">
+      <c r="G31">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="32" spans="6:14" x14ac:dyDescent="0.35">
+      <c r="G32">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="33" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="G33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="G34">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="35" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="G35">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="36" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="G36">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="G37">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="38" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="G38">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="39" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="G39">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="40" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="G40">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="41" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="G41">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="G42">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="43" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="G43">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="44" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="G44">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="45" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="G45">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F46">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="47" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="G47">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="48" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="G48">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="49" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="G49">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="50" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="G50">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="51" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="G51">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="52" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F52">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="53" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="G53">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="54" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="G54">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="G55">
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="6:14" x14ac:dyDescent="0.25">
-      <c r="G30">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="31" spans="6:14" x14ac:dyDescent="0.25">
-      <c r="F31">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="32" spans="6:14" x14ac:dyDescent="0.25">
-      <c r="G32">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="33" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="G33">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="34" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F34">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="35" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="G35">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="36" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="G36">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="37" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F37">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="38" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="G38">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="39" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="G39">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="40" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="G40">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="41" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="G41">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="42" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="G42">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="43" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="G43">
+    <row r="56" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="G56">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="G57">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="58" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="G58">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="59" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="G59">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="G60">
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="G44">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="45" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="G45">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="46" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="G46">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="47" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="G47">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="48" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="G48">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="49" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="G49">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="50" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F50">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="51" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="G51">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="52" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="G52">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="53" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="G53">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="54" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="G54">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="55" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="G55">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="56" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="G56">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="57" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="G57">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="58" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="G58">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="59" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="G59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F60">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="61" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="6:7" x14ac:dyDescent="0.35">
       <c r="G61">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="62" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F62">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="63" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="G63">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="64" spans="6:7" x14ac:dyDescent="0.25">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="62" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="G62">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="63" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F63">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="64" spans="6:7" x14ac:dyDescent="0.35">
       <c r="G64">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="65" spans="6:7" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="65" spans="7:7" x14ac:dyDescent="0.35">
       <c r="G65">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="66" spans="6:7" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="66" spans="7:7" x14ac:dyDescent="0.35">
       <c r="G66">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="67" spans="6:7" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="67" spans="7:7" x14ac:dyDescent="0.35">
       <c r="G67">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="68" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="G68">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="69" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="G69">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="70" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F70">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="71" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="G71">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="72" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="G72">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="73" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="G73">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="74" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="G74">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="75" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="G75">
-        <v>60</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/benefit.xlsx
+++ b/benefit.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\te\arduino\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3971B180-0C00-4C10-B68C-58087B5219F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6704D8A-9B77-49A7-A2C9-4023858AD537}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{562C186B-7536-4815-983F-BCFB6FE581BA}"/>
   </bookViews>
@@ -64,7 +64,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -76,6 +76,12 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -114,9 +120,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -433,10 +445,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42D720BC-90CD-453C-B61F-4B80DD7C9570}">
-  <dimension ref="F2:N67"/>
+  <dimension ref="F2:N79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P16" sqref="P16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -452,10 +464,10 @@
         <v>2</v>
       </c>
       <c r="K2">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="3" spans="6:12" x14ac:dyDescent="0.35">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="3" spans="6:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="F3" t="s">
         <v>1</v>
       </c>
@@ -463,57 +475,63 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="6:12" x14ac:dyDescent="0.35">
-      <c r="G4">
+    <row r="4" spans="6:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F4" s="2"/>
+      <c r="G4" s="1">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="5" spans="6:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F5" s="2"/>
+      <c r="G5" s="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="6:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F6" s="2"/>
+      <c r="G6" s="1">
         <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="6:12" x14ac:dyDescent="0.35">
-      <c r="G5">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="6" spans="6:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="G6">
-        <v>28</v>
       </c>
       <c r="K6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="6:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="G7">
-        <v>41</v>
-      </c>
+      <c r="F7" s="1">
+        <v>182</v>
+      </c>
+      <c r="G7" s="1"/>
       <c r="J7">
         <v>500</v>
       </c>
       <c r="K7" s="1">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="L7">
         <f>K7*J7</f>
-        <v>3500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="8" spans="6:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="G8">
-        <v>75</v>
+      <c r="F8" s="2"/>
+      <c r="G8" s="1">
+        <v>144</v>
       </c>
       <c r="J8">
         <v>200</v>
       </c>
       <c r="K8" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <f t="shared" ref="L8:L15" si="0">K8*J8</f>
-        <v>800</v>
+        <v>600</v>
       </c>
     </row>
     <row r="9" spans="6:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="G9">
-        <v>68</v>
+      <c r="F9" s="2"/>
+      <c r="G9" s="1">
+        <v>8</v>
       </c>
       <c r="J9">
         <v>100</v>
@@ -527,398 +545,518 @@
       </c>
     </row>
     <row r="10" spans="6:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="G10">
-        <v>25</v>
+      <c r="F10" s="2"/>
+      <c r="G10" s="1">
+        <v>10</v>
       </c>
       <c r="J10">
         <v>50</v>
       </c>
       <c r="K10" s="1">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="L10">
         <f t="shared" si="0"/>
-        <v>650</v>
+        <v>450</v>
       </c>
     </row>
     <row r="11" spans="6:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="G11">
-        <v>512</v>
+      <c r="F11" s="2"/>
+      <c r="G11" s="1">
+        <v>32</v>
       </c>
       <c r="J11">
         <v>20</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="6:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="G12">
-        <v>4</v>
+      <c r="F12" s="2"/>
+      <c r="G12" s="1">
+        <v>134</v>
       </c>
       <c r="J12">
         <v>10</v>
       </c>
       <c r="K12" s="1">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="L12">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>120</v>
       </c>
     </row>
     <row r="13" spans="6:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="G13">
-        <v>98</v>
+      <c r="F13" s="2"/>
+      <c r="G13" s="1">
+        <v>18</v>
       </c>
       <c r="J13">
         <v>5</v>
       </c>
       <c r="K13" s="1">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="L13">
         <f t="shared" si="0"/>
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="6:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="G14">
-        <v>21</v>
+      <c r="F14" s="2"/>
+      <c r="G14" s="1">
+        <v>155</v>
       </c>
       <c r="J14">
         <v>2</v>
       </c>
       <c r="K14" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L14">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="6:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="G15">
-        <v>682</v>
-      </c>
+      <c r="F15" s="1">
+        <v>84</v>
+      </c>
+      <c r="G15" s="1"/>
       <c r="J15">
         <v>1</v>
       </c>
       <c r="K15" s="1">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="L15">
         <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="16" spans="6:12" x14ac:dyDescent="0.35">
-      <c r="G16">
-        <v>226</v>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="6:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F16" s="2"/>
+      <c r="G16" s="1">
+        <v>30</v>
       </c>
       <c r="J16" t="s">
         <v>4</v>
       </c>
       <c r="L16">
         <f>SUM(L7:L15)</f>
-        <v>6153</v>
-      </c>
-    </row>
-    <row r="17" spans="6:14" x14ac:dyDescent="0.35">
-      <c r="G17">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="6:14" x14ac:dyDescent="0.35">
-      <c r="G18">
-        <v>11</v>
-      </c>
+        <v>4843</v>
+      </c>
+    </row>
+    <row r="17" spans="6:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F17" s="2"/>
+      <c r="G17" s="1">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="18" spans="6:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F18" s="2"/>
+      <c r="G18" s="1"/>
       <c r="N18" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="6:14" x14ac:dyDescent="0.35">
-      <c r="G19">
-        <v>175</v>
-      </c>
+    <row r="19" spans="6:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F19" s="1">
+        <v>400</v>
+      </c>
+      <c r="G19" s="1"/>
       <c r="I19" t="s">
         <v>6</v>
       </c>
       <c r="J19">
         <f>SUM(G4:G97)</f>
-        <v>5371</v>
+        <v>4025</v>
       </c>
       <c r="L19" t="s">
         <v>7</v>
       </c>
       <c r="M19">
         <f>L16</f>
-        <v>6153</v>
+        <v>4843</v>
       </c>
       <c r="N19">
         <f>M20-(M19-J19)</f>
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="20" spans="6:14" x14ac:dyDescent="0.35">
-      <c r="G20">
-        <v>11</v>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="6:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F20" s="2"/>
+      <c r="G20" s="1">
+        <v>107</v>
       </c>
       <c r="I20" t="s">
         <v>5</v>
       </c>
       <c r="J20">
         <f>SUM(F4:F323)</f>
-        <v>999</v>
+        <v>1370</v>
       </c>
       <c r="L20" t="s">
         <v>8</v>
       </c>
       <c r="M20">
         <f>K2</f>
-        <v>780</v>
-      </c>
-    </row>
-    <row r="21" spans="6:14" x14ac:dyDescent="0.35">
-      <c r="G21">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22" spans="6:14" x14ac:dyDescent="0.35">
-      <c r="G22">
-        <v>10</v>
+        <v>828</v>
+      </c>
+    </row>
+    <row r="21" spans="6:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F21" s="2"/>
+      <c r="G21" s="1">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="22" spans="6:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F22" s="2"/>
+      <c r="G22" s="1">
+        <v>103</v>
       </c>
       <c r="M22" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="6:14" x14ac:dyDescent="0.35">
-      <c r="F23">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="24" spans="6:14" x14ac:dyDescent="0.35">
-      <c r="G24">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="25" spans="6:14" x14ac:dyDescent="0.35">
-      <c r="G25">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="26" spans="6:14" x14ac:dyDescent="0.35">
-      <c r="G26">
+    <row r="23" spans="6:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F23" s="1"/>
+      <c r="G23" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="6:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+    </row>
+    <row r="25" spans="6:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+    </row>
+    <row r="26" spans="6:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+    </row>
+    <row r="27" spans="6:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F27" s="2"/>
+      <c r="G27" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="6:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F28" s="2"/>
+      <c r="G28" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" spans="6:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F29" s="2"/>
+      <c r="G29" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30" spans="6:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F30" s="2"/>
+      <c r="G30" s="3">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="31" spans="6:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F31" s="2"/>
+      <c r="G31" s="3">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="32" spans="6:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F32" s="2"/>
+      <c r="G32" s="3">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="33" spans="6:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F33" s="2"/>
+      <c r="G33" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="34" spans="6:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F34" s="2"/>
+      <c r="G34" s="3">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="35" spans="6:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F35" s="2"/>
+      <c r="G35" s="3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="36" spans="6:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F36" s="2"/>
+      <c r="G36" s="3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="37" spans="6:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F37" s="2"/>
+      <c r="G37" s="3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="38" spans="6:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F38" s="2"/>
+      <c r="G38" s="1">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="39" spans="6:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F39" s="2"/>
+      <c r="G39" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="40" spans="6:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F40" s="2"/>
+      <c r="G40" s="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="41" spans="6:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F41" s="2"/>
+      <c r="G41" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42" spans="6:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F42" s="2"/>
+      <c r="G42" s="1">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="43" spans="6:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F43" s="2"/>
+      <c r="G43" s="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="44" spans="6:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F44" s="2"/>
+      <c r="G44" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="45" spans="6:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F45" s="2"/>
+      <c r="G45" s="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="46" spans="6:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F46" s="2"/>
+      <c r="G46" s="1">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="47" spans="6:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F47" s="1">
+        <v>41</v>
+      </c>
+      <c r="G47" s="1"/>
+    </row>
+    <row r="48" spans="6:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F48" s="2"/>
+      <c r="G48" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="49" spans="6:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F49" s="2"/>
+      <c r="G49" s="1">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="50" spans="6:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F50" s="2"/>
+      <c r="G50" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51" spans="6:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F51" s="2"/>
+      <c r="G51" s="1"/>
+    </row>
+    <row r="52" spans="6:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F52" s="2"/>
+      <c r="G52" s="1">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="53" spans="6:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F53" s="2"/>
+      <c r="G53" s="1">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="54" spans="6:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F54" s="2"/>
+      <c r="G54" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55" spans="6:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F55" s="1">
+        <v>220</v>
+      </c>
+      <c r="G55" s="1"/>
+    </row>
+    <row r="56" spans="6:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F56" s="2"/>
+      <c r="G56" s="1">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="57" spans="6:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F57" s="2"/>
+      <c r="G57" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="58" spans="6:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F58" s="1">
+        <v>48</v>
+      </c>
+      <c r="G58" s="1"/>
+    </row>
+    <row r="59" spans="6:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F59" s="1">
+        <v>243</v>
+      </c>
+      <c r="G59" s="1"/>
+    </row>
+    <row r="60" spans="6:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F60" s="1"/>
+      <c r="G60" s="1">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="61" spans="6:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F61" s="2"/>
+      <c r="G61" s="1">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="62" spans="6:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F62" s="2"/>
+      <c r="G62" s="1">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="63" spans="6:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F63" s="2"/>
+      <c r="G63" s="1">
         <v>11</v>
       </c>
     </row>
-    <row r="27" spans="6:14" x14ac:dyDescent="0.35">
-      <c r="G27">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="28" spans="6:14" x14ac:dyDescent="0.35">
-      <c r="G28">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="29" spans="6:14" x14ac:dyDescent="0.35">
-      <c r="G29">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="30" spans="6:14" x14ac:dyDescent="0.35">
-      <c r="G30">
+    <row r="64" spans="6:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F64" s="2"/>
+      <c r="G64" s="1">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="65" spans="6:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F65" s="2"/>
+      <c r="G65" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="6:14" x14ac:dyDescent="0.35">
-      <c r="G31">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="32" spans="6:14" x14ac:dyDescent="0.35">
-      <c r="G32">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="33" spans="6:7" x14ac:dyDescent="0.35">
-      <c r="G33">
+    <row r="66" spans="6:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F66" s="1"/>
+      <c r="G66" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="6:7" x14ac:dyDescent="0.35">
-      <c r="G34">
+    <row r="67" spans="6:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F67" s="2"/>
+      <c r="G67" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="68" spans="6:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F68" s="2"/>
+      <c r="G68" s="1">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="69" spans="6:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F69" s="1">
+        <v>127</v>
+      </c>
+      <c r="G69" s="2"/>
+    </row>
+    <row r="70" spans="6:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F70" s="1">
+        <v>18</v>
+      </c>
+      <c r="G70" s="2"/>
+    </row>
+    <row r="71" spans="6:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F71" s="2"/>
+      <c r="G71" s="1">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="72" spans="6:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F72" s="2"/>
+      <c r="G72" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="73" spans="6:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F73" s="2"/>
+      <c r="G73" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="74" spans="6:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F74" s="2"/>
+      <c r="G74" s="1">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="75" spans="6:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F75" s="2"/>
+      <c r="G75" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="76" spans="6:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F76" s="2"/>
+      <c r="G76" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="77" spans="6:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F77" s="1"/>
+      <c r="G77" s="1">
         <v>25</v>
       </c>
     </row>
-    <row r="35" spans="6:7" x14ac:dyDescent="0.35">
-      <c r="G35">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="36" spans="6:7" x14ac:dyDescent="0.35">
-      <c r="G36">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="6:7" x14ac:dyDescent="0.35">
-      <c r="G37">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="38" spans="6:7" x14ac:dyDescent="0.35">
-      <c r="G38">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="39" spans="6:7" x14ac:dyDescent="0.35">
-      <c r="G39">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="40" spans="6:7" x14ac:dyDescent="0.35">
-      <c r="G40">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="41" spans="6:7" x14ac:dyDescent="0.35">
-      <c r="G41">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="42" spans="6:7" x14ac:dyDescent="0.35">
-      <c r="G42">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="43" spans="6:7" x14ac:dyDescent="0.35">
-      <c r="G43">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="44" spans="6:7" x14ac:dyDescent="0.35">
-      <c r="G44">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="45" spans="6:7" x14ac:dyDescent="0.35">
-      <c r="G45">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="46" spans="6:7" x14ac:dyDescent="0.35">
-      <c r="F46">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="47" spans="6:7" x14ac:dyDescent="0.35">
-      <c r="G47">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="48" spans="6:7" x14ac:dyDescent="0.35">
-      <c r="G48">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="49" spans="6:7" x14ac:dyDescent="0.35">
-      <c r="G49">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="50" spans="6:7" x14ac:dyDescent="0.35">
-      <c r="G50">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="51" spans="6:7" x14ac:dyDescent="0.35">
-      <c r="G51">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="52" spans="6:7" x14ac:dyDescent="0.35">
-      <c r="F52">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="53" spans="6:7" x14ac:dyDescent="0.35">
-      <c r="G53">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="54" spans="6:7" x14ac:dyDescent="0.35">
-      <c r="G54">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="55" spans="6:7" x14ac:dyDescent="0.35">
-      <c r="G55">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="56" spans="6:7" x14ac:dyDescent="0.35">
-      <c r="G56">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="57" spans="6:7" x14ac:dyDescent="0.35">
-      <c r="G57">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="58" spans="6:7" x14ac:dyDescent="0.35">
-      <c r="G58">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="59" spans="6:7" x14ac:dyDescent="0.35">
-      <c r="G59">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="60" spans="6:7" x14ac:dyDescent="0.35">
-      <c r="G60">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="6:7" x14ac:dyDescent="0.35">
-      <c r="G61">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="62" spans="6:7" x14ac:dyDescent="0.35">
-      <c r="G62">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="63" spans="6:7" x14ac:dyDescent="0.35">
-      <c r="F63">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="64" spans="6:7" x14ac:dyDescent="0.35">
-      <c r="G64">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="65" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G65">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="66" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G66">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="67" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G67">
-        <v>8</v>
+    <row r="78" spans="6:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F78" s="1">
+        <v>7</v>
+      </c>
+      <c r="G78" s="2"/>
+    </row>
+    <row r="79" spans="6:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F79" s="2"/>
+      <c r="G79" s="3">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
